--- a/templates/WeeklyReport.xlsx
+++ b/templates/WeeklyReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM-TEST\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F01FD-D1DD-4C48-A683-982DAFB1D885}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55DC2F0-1D01-40E5-A076-4E6DF922F5A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="10050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -318,13 +318,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,24 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,6 +479,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,7 +913,7 @@
   <dimension ref="A1:HH82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="B80:C82"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,95 +1519,268 @@
       <c r="AM36" s="46"/>
     </row>
     <row r="37" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="23" t="str">
         <f>B37&amp;" " &amp;A37</f>
-        <v>Ambiant Strain Control</v>
+        <v>Four Strain Control</v>
       </c>
       <c r="D37" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,E$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,E$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,H$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,H$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
       <c r="J37" s="41">
-        <f t="shared" ref="J37" ca="1" si="10">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,K$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,K$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
       <c r="M37" s="41">
-        <f t="shared" ref="M37" ca="1" si="11">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,N$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,N$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
       <c r="P37" s="41">
-        <f t="shared" ref="P37" ca="1" si="12">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,Q$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,Q$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="Q37" s="41"/>
       <c r="R37" s="41"/>
       <c r="S37" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,T$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,T$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="T37" s="41"/>
       <c r="U37" s="41"/>
       <c r="V37" s="41">
-        <f t="shared" ref="V37" ca="1" si="13">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,W$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,W$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="W37" s="41"/>
       <c r="X37" s="41"/>
       <c r="Y37" s="41">
-        <f t="shared" ref="Y37" ca="1" si="14">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,Z$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,Z$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="Z37" s="41"/>
       <c r="AA37" s="41"/>
       <c r="AB37" s="41">
-        <f t="shared" ref="AB37" ca="1" si="15">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AC$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AC$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="AC37" s="41"/>
       <c r="AD37" s="41"/>
       <c r="AE37" s="41">
-        <f t="shared" ref="AE37" ca="1" si="16">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AF$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AF$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="AF37" s="41"/>
       <c r="AG37" s="41"/>
       <c r="AH37" s="41">
-        <f t="shared" ref="AH37" ca="1" si="17">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AI$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AI$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="AI37" s="41"/>
       <c r="AJ37" s="41"/>
       <c r="AK37" s="41">
-        <f t="shared" ref="AK37" ca="1" si="18">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AL$36,$D47:$GL47))/7</f>
-        <v>5</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AL$36,$D49:$GL49))/7</f>
+        <v>2</v>
       </c>
       <c r="AL37" s="41"/>
       <c r="AM37" s="41"/>
-      <c r="AN37" s="16"/>
-      <c r="AO37" s="16"/>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="16"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="34"/>
+      <c r="AT37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AV37" s="34"/>
+      <c r="AW37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="34"/>
+      <c r="AZ37" s="34"/>
+      <c r="BA37" s="34"/>
+      <c r="BB37" s="34"/>
+      <c r="BC37" s="34"/>
+      <c r="BD37" s="34"/>
+      <c r="BE37" s="34"/>
+      <c r="BF37" s="34"/>
+      <c r="BG37" s="34"/>
+      <c r="BH37" s="34"/>
+      <c r="BI37" s="34"/>
+      <c r="BJ37" s="34"/>
+      <c r="BK37" s="34"/>
+      <c r="BL37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BN37" s="34"/>
+      <c r="BO37" s="34"/>
+      <c r="BP37" s="34"/>
+      <c r="BQ37" s="34"/>
+      <c r="BR37" s="34"/>
+      <c r="BS37" s="34"/>
+      <c r="BT37" s="34"/>
+      <c r="BU37" s="34"/>
+      <c r="BV37" s="34"/>
+      <c r="BW37" s="34"/>
+      <c r="BX37" s="34"/>
+      <c r="BY37" s="34"/>
+      <c r="BZ37" s="34"/>
+      <c r="CA37" s="34"/>
+      <c r="CB37" s="34"/>
+      <c r="CC37" s="34"/>
+      <c r="CD37" s="34"/>
+      <c r="CE37" s="34"/>
+      <c r="CF37" s="34"/>
+      <c r="CG37" s="34"/>
+      <c r="CH37" s="34"/>
+      <c r="CI37" s="34"/>
+      <c r="CJ37" s="34"/>
+      <c r="CK37" s="34"/>
+      <c r="CL37" s="34"/>
+      <c r="CM37" s="34"/>
+      <c r="CN37" s="34"/>
+      <c r="CO37" s="34"/>
+      <c r="CP37" s="34"/>
+      <c r="CQ37" s="34"/>
+      <c r="CR37" s="34"/>
+      <c r="CS37" s="34"/>
+      <c r="CT37" s="34"/>
+      <c r="CU37" s="34"/>
+      <c r="CV37" s="34"/>
+      <c r="CW37" s="34"/>
+      <c r="CX37" s="34"/>
+      <c r="CY37" s="34"/>
+      <c r="CZ37" s="34"/>
+      <c r="DA37" s="34"/>
+      <c r="DB37" s="34"/>
+      <c r="DC37" s="34"/>
+      <c r="DD37" s="34"/>
+      <c r="DE37" s="34"/>
+      <c r="DF37" s="34"/>
+      <c r="DG37" s="34"/>
+      <c r="DH37" s="34"/>
+      <c r="DI37" s="34"/>
+      <c r="DJ37" s="34"/>
+      <c r="DK37" s="34"/>
+      <c r="DL37" s="34"/>
+      <c r="DM37" s="34"/>
+      <c r="DN37" s="34"/>
+      <c r="DO37" s="34"/>
+      <c r="DP37" s="34"/>
+      <c r="DQ37" s="34"/>
+      <c r="DR37" s="34"/>
+      <c r="DS37" s="34"/>
+      <c r="DT37" s="34"/>
+      <c r="DU37" s="34"/>
+      <c r="DV37" s="34"/>
+      <c r="DW37" s="34"/>
+      <c r="DX37" s="34"/>
+      <c r="DY37" s="34"/>
+      <c r="DZ37" s="34"/>
+      <c r="EA37" s="34"/>
+      <c r="EB37" s="34"/>
+      <c r="EC37" s="34"/>
+      <c r="ED37" s="34"/>
+      <c r="EE37" s="34"/>
+      <c r="EF37" s="34"/>
+      <c r="EG37" s="34"/>
+      <c r="EH37" s="34"/>
+      <c r="EI37" s="34"/>
+      <c r="EJ37" s="34"/>
+      <c r="EK37" s="34"/>
+      <c r="EL37" s="34"/>
+      <c r="EM37" s="34"/>
+      <c r="EN37" s="34"/>
+      <c r="EO37" s="34"/>
+      <c r="EP37" s="34"/>
+      <c r="EQ37" s="34"/>
+      <c r="ER37" s="34"/>
+      <c r="ES37" s="34"/>
+      <c r="ET37" s="34"/>
+      <c r="EU37" s="34"/>
+      <c r="EV37" s="34"/>
+      <c r="EW37" s="34"/>
+      <c r="EX37" s="34"/>
+      <c r="EY37" s="34"/>
+      <c r="EZ37" s="34"/>
+      <c r="FA37" s="34"/>
+      <c r="FB37" s="34"/>
+      <c r="FC37" s="34"/>
+      <c r="FD37" s="34"/>
+      <c r="FE37" s="34"/>
+      <c r="FF37" s="34"/>
+      <c r="FG37" s="34"/>
+      <c r="FH37" s="34"/>
+      <c r="FI37" s="34"/>
+      <c r="FJ37" s="34"/>
+      <c r="FK37" s="34"/>
+      <c r="FL37" s="34"/>
+      <c r="FM37" s="34"/>
+      <c r="FN37" s="34"/>
+      <c r="FO37" s="34"/>
+      <c r="FP37" s="34"/>
+      <c r="FQ37" s="34"/>
+      <c r="FR37" s="34"/>
+      <c r="FS37" s="34"/>
+      <c r="FT37" s="34"/>
+      <c r="FU37" s="34"/>
+      <c r="FV37" s="34"/>
+      <c r="FW37" s="34"/>
+      <c r="FX37" s="34"/>
+      <c r="FY37" s="34"/>
+      <c r="FZ37" s="34"/>
+      <c r="GA37" s="34"/>
+      <c r="GB37" s="34"/>
+      <c r="GC37" s="34"/>
+      <c r="GD37" s="34"/>
+      <c r="GE37" s="34"/>
+      <c r="GF37" s="34"/>
+      <c r="GG37" s="34"/>
+      <c r="GH37" s="34"/>
+      <c r="GI37" s="34"/>
+      <c r="GJ37" s="34"/>
+      <c r="GK37" s="34"/>
+      <c r="GL37" s="34"/>
+      <c r="GM37" s="34"/>
+      <c r="GN37" s="34"/>
+      <c r="GO37" s="34"/>
+      <c r="GP37" s="34"/>
+      <c r="GQ37" s="34"/>
+      <c r="GR37" s="34"/>
+      <c r="GS37" s="34"/>
+      <c r="GT37" s="34"/>
+      <c r="GU37" s="34"/>
+      <c r="GV37" s="34"/>
+      <c r="GW37" s="34"/>
+      <c r="GX37" s="34"/>
+      <c r="GY37" s="34"/>
+      <c r="GZ37" s="34"/>
+      <c r="HA37" s="34"/>
+      <c r="HB37" s="34"/>
+      <c r="HC37" s="34"/>
+      <c r="HD37" s="34"/>
+      <c r="HE37" s="34"/>
+      <c r="HF37" s="34"/>
+      <c r="HG37" s="34"/>
+      <c r="HH37" s="34"/>
     </row>
     <row r="38" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="47" t="s">
         <v>21</v>
       </c>
@@ -1600,61 +1801,61 @@
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41">
-        <f t="shared" ref="J38" ca="1" si="19">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,K$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,K$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41">
-        <f t="shared" ref="M38" ca="1" si="20">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,N$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,N$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
       <c r="P38" s="41">
-        <f t="shared" ref="P38" ca="1" si="21">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,Q$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,Q$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="41"/>
       <c r="S38" s="41">
-        <f t="shared" ref="S38" ca="1" si="22">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,T$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,T$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="T38" s="41"/>
       <c r="U38" s="41"/>
       <c r="V38" s="41">
-        <f t="shared" ref="V38" ca="1" si="23">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,W$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,W$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="W38" s="41"/>
       <c r="X38" s="41"/>
       <c r="Y38" s="41">
-        <f t="shared" ref="Y38" ca="1" si="24">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,Z$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,Z$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="Z38" s="41"/>
       <c r="AA38" s="41"/>
       <c r="AB38" s="41">
-        <f t="shared" ref="AB38" ca="1" si="25">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AC$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AC$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="AC38" s="41"/>
       <c r="AD38" s="41"/>
       <c r="AE38" s="41">
-        <f t="shared" ref="AE38" ca="1" si="26">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AF$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AF$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="AF38" s="41"/>
       <c r="AG38" s="41"/>
       <c r="AH38" s="41">
-        <f t="shared" ref="AH38" ca="1" si="27">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AI$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AI$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="AI38" s="41"/>
       <c r="AJ38" s="41"/>
       <c r="AK38" s="41">
-        <f t="shared" ref="AK38" ca="1" si="28">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AL$36,$D48:$GL48))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B48,$C$53:$C$82,$C48)*7-SUMIF($D$46:$GL$46,AL$36,$D48:$GL48))/7</f>
         <v>7</v>
       </c>
       <c r="AL38" s="41"/>
@@ -1838,280 +2039,107 @@
       <c r="HH38" s="15"/>
     </row>
     <row r="39" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="23" t="str">
         <f>B39&amp;" " &amp;A37</f>
-        <v>Four Strain Control</v>
+        <v>Ambiant Strain Control</v>
       </c>
       <c r="D39" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,E$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,E$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,H$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,H$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41">
-        <f t="shared" ref="J39" ca="1" si="29">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,K$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,K$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41">
-        <f t="shared" ref="M39" ca="1" si="30">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,N$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,N$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
       <c r="P39" s="41">
-        <f t="shared" ref="P39" ca="1" si="31">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,Q$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,Q$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="41"/>
       <c r="S39" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,T$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,T$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="T39" s="41"/>
       <c r="U39" s="41"/>
       <c r="V39" s="41">
-        <f t="shared" ref="V39" ca="1" si="32">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,W$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,W$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="W39" s="41"/>
       <c r="X39" s="41"/>
       <c r="Y39" s="41">
-        <f t="shared" ref="Y39" ca="1" si="33">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,Z$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,Z$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="Z39" s="41"/>
       <c r="AA39" s="41"/>
       <c r="AB39" s="41">
-        <f t="shared" ref="AB39" ca="1" si="34">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AC$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AC$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="AC39" s="41"/>
       <c r="AD39" s="41"/>
       <c r="AE39" s="41">
-        <f t="shared" ref="AE39" ca="1" si="35">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AF$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AF$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="AF39" s="41"/>
       <c r="AG39" s="41"/>
       <c r="AH39" s="41">
-        <f t="shared" ref="AH39" ca="1" si="36">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AI$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AI$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="AI39" s="41"/>
       <c r="AJ39" s="41"/>
       <c r="AK39" s="41">
-        <f t="shared" ref="AK39" ca="1" si="37">(COUNTIFS($B$53:$B$82,$B49,$C$53:$C$82,$C49)*7-SUMIF($D$46:$GL$46,AL$36,$D49:$GL49))/7</f>
-        <v>2</v>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B47,$C$53:$C$82,$C47)*7-SUMIF($D$46:$GL$46,AL$36,$D47:$GL47))/7</f>
+        <v>5</v>
       </c>
       <c r="AL39" s="41"/>
       <c r="AM39" s="41"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="34"/>
-      <c r="AW39" s="34"/>
-      <c r="AX39" s="34"/>
-      <c r="AY39" s="34"/>
-      <c r="AZ39" s="34"/>
-      <c r="BA39" s="34"/>
-      <c r="BB39" s="34"/>
-      <c r="BC39" s="34"/>
-      <c r="BD39" s="34"/>
-      <c r="BE39" s="34"/>
-      <c r="BF39" s="34"/>
-      <c r="BG39" s="34"/>
-      <c r="BH39" s="34"/>
-      <c r="BI39" s="34"/>
-      <c r="BJ39" s="34"/>
-      <c r="BK39" s="34"/>
-      <c r="BL39" s="34"/>
-      <c r="BM39" s="34"/>
-      <c r="BN39" s="34"/>
-      <c r="BO39" s="34"/>
-      <c r="BP39" s="34"/>
-      <c r="BQ39" s="34"/>
-      <c r="BR39" s="34"/>
-      <c r="BS39" s="34"/>
-      <c r="BT39" s="34"/>
-      <c r="BU39" s="34"/>
-      <c r="BV39" s="34"/>
-      <c r="BW39" s="34"/>
-      <c r="BX39" s="34"/>
-      <c r="BY39" s="34"/>
-      <c r="BZ39" s="34"/>
-      <c r="CA39" s="34"/>
-      <c r="CB39" s="34"/>
-      <c r="CC39" s="34"/>
-      <c r="CD39" s="34"/>
-      <c r="CE39" s="34"/>
-      <c r="CF39" s="34"/>
-      <c r="CG39" s="34"/>
-      <c r="CH39" s="34"/>
-      <c r="CI39" s="34"/>
-      <c r="CJ39" s="34"/>
-      <c r="CK39" s="34"/>
-      <c r="CL39" s="34"/>
-      <c r="CM39" s="34"/>
-      <c r="CN39" s="34"/>
-      <c r="CO39" s="34"/>
-      <c r="CP39" s="34"/>
-      <c r="CQ39" s="34"/>
-      <c r="CR39" s="34"/>
-      <c r="CS39" s="34"/>
-      <c r="CT39" s="34"/>
-      <c r="CU39" s="34"/>
-      <c r="CV39" s="34"/>
-      <c r="CW39" s="34"/>
-      <c r="CX39" s="34"/>
-      <c r="CY39" s="34"/>
-      <c r="CZ39" s="34"/>
-      <c r="DA39" s="34"/>
-      <c r="DB39" s="34"/>
-      <c r="DC39" s="34"/>
-      <c r="DD39" s="34"/>
-      <c r="DE39" s="34"/>
-      <c r="DF39" s="34"/>
-      <c r="DG39" s="34"/>
-      <c r="DH39" s="34"/>
-      <c r="DI39" s="34"/>
-      <c r="DJ39" s="34"/>
-      <c r="DK39" s="34"/>
-      <c r="DL39" s="34"/>
-      <c r="DM39" s="34"/>
-      <c r="DN39" s="34"/>
-      <c r="DO39" s="34"/>
-      <c r="DP39" s="34"/>
-      <c r="DQ39" s="34"/>
-      <c r="DR39" s="34"/>
-      <c r="DS39" s="34"/>
-      <c r="DT39" s="34"/>
-      <c r="DU39" s="34"/>
-      <c r="DV39" s="34"/>
-      <c r="DW39" s="34"/>
-      <c r="DX39" s="34"/>
-      <c r="DY39" s="34"/>
-      <c r="DZ39" s="34"/>
-      <c r="EA39" s="34"/>
-      <c r="EB39" s="34"/>
-      <c r="EC39" s="34"/>
-      <c r="ED39" s="34"/>
-      <c r="EE39" s="34"/>
-      <c r="EF39" s="34"/>
-      <c r="EG39" s="34"/>
-      <c r="EH39" s="34"/>
-      <c r="EI39" s="34"/>
-      <c r="EJ39" s="34"/>
-      <c r="EK39" s="34"/>
-      <c r="EL39" s="34"/>
-      <c r="EM39" s="34"/>
-      <c r="EN39" s="34"/>
-      <c r="EO39" s="34"/>
-      <c r="EP39" s="34"/>
-      <c r="EQ39" s="34"/>
-      <c r="ER39" s="34"/>
-      <c r="ES39" s="34"/>
-      <c r="ET39" s="34"/>
-      <c r="EU39" s="34"/>
-      <c r="EV39" s="34"/>
-      <c r="EW39" s="34"/>
-      <c r="EX39" s="34"/>
-      <c r="EY39" s="34"/>
-      <c r="EZ39" s="34"/>
-      <c r="FA39" s="34"/>
-      <c r="FB39" s="34"/>
-      <c r="FC39" s="34"/>
-      <c r="FD39" s="34"/>
-      <c r="FE39" s="34"/>
-      <c r="FF39" s="34"/>
-      <c r="FG39" s="34"/>
-      <c r="FH39" s="34"/>
-      <c r="FI39" s="34"/>
-      <c r="FJ39" s="34"/>
-      <c r="FK39" s="34"/>
-      <c r="FL39" s="34"/>
-      <c r="FM39" s="34"/>
-      <c r="FN39" s="34"/>
-      <c r="FO39" s="34"/>
-      <c r="FP39" s="34"/>
-      <c r="FQ39" s="34"/>
-      <c r="FR39" s="34"/>
-      <c r="FS39" s="34"/>
-      <c r="FT39" s="34"/>
-      <c r="FU39" s="34"/>
-      <c r="FV39" s="34"/>
-      <c r="FW39" s="34"/>
-      <c r="FX39" s="34"/>
-      <c r="FY39" s="34"/>
-      <c r="FZ39" s="34"/>
-      <c r="GA39" s="34"/>
-      <c r="GB39" s="34"/>
-      <c r="GC39" s="34"/>
-      <c r="GD39" s="34"/>
-      <c r="GE39" s="34"/>
-      <c r="GF39" s="34"/>
-      <c r="GG39" s="34"/>
-      <c r="GH39" s="34"/>
-      <c r="GI39" s="34"/>
-      <c r="GJ39" s="34"/>
-      <c r="GK39" s="34"/>
-      <c r="GL39" s="34"/>
-      <c r="GM39" s="34"/>
-      <c r="GN39" s="34"/>
-      <c r="GO39" s="34"/>
-      <c r="GP39" s="34"/>
-      <c r="GQ39" s="34"/>
-      <c r="GR39" s="34"/>
-      <c r="GS39" s="34"/>
-      <c r="GT39" s="34"/>
-      <c r="GU39" s="34"/>
-      <c r="GV39" s="34"/>
-      <c r="GW39" s="34"/>
-      <c r="GX39" s="34"/>
-      <c r="GY39" s="34"/>
-      <c r="GZ39" s="34"/>
-      <c r="HA39" s="34"/>
-      <c r="HB39" s="34"/>
-      <c r="HC39" s="34"/>
-      <c r="HD39" s="34"/>
-      <c r="HE39" s="34"/>
-      <c r="HF39" s="34"/>
-      <c r="HG39" s="34"/>
-      <c r="HH39" s="34"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
     </row>
     <row r="40" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="23" t="str">
         <f>B40&amp;" " &amp;A40</f>
-        <v>Ambiant Load Control</v>
+        <v>Four Load Control</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,E$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,E$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="F40" s="41"/>
@@ -2119,7 +2147,7 @@
         <v>22</v>
       </c>
       <c r="H40" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,H$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,H$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="I40" s="41"/>
@@ -2127,7 +2155,7 @@
         <v>22</v>
       </c>
       <c r="K40" s="41">
-        <f t="shared" ref="K40" ca="1" si="38">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,K$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,K$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="L40" s="41"/>
@@ -2135,7 +2163,7 @@
         <v>22</v>
       </c>
       <c r="N40" s="41">
-        <f t="shared" ref="N40" ca="1" si="39">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,N$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,N$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="O40" s="41"/>
@@ -2143,7 +2171,7 @@
         <v>22</v>
       </c>
       <c r="Q40" s="41">
-        <f t="shared" ref="Q40" ca="1" si="40">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,Q$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,Q$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="R40" s="41"/>
@@ -2151,7 +2179,7 @@
         <v>22</v>
       </c>
       <c r="T40" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,T$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,T$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="U40" s="41"/>
@@ -2159,7 +2187,7 @@
         <v>22</v>
       </c>
       <c r="W40" s="41">
-        <f t="shared" ref="W40" ca="1" si="41">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,W$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,W$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="X40" s="41"/>
@@ -2167,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="Z40" s="41">
-        <f t="shared" ref="Z40" ca="1" si="42">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,Z$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,Z$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="AA40" s="41"/>
@@ -2175,7 +2203,7 @@
         <v>22</v>
       </c>
       <c r="AC40" s="41">
-        <f t="shared" ref="AC40" ca="1" si="43">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AC$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AC$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="AD40" s="41"/>
@@ -2183,7 +2211,7 @@
         <v>22</v>
       </c>
       <c r="AF40" s="41">
-        <f t="shared" ref="AF40" ca="1" si="44">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AF$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AF$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="AG40" s="41"/>
@@ -2191,7 +2219,7 @@
         <v>22</v>
       </c>
       <c r="AI40" s="41">
-        <f t="shared" ref="AI40" ca="1" si="45">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AI$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AI$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="AJ40" s="41"/>
@@ -2199,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="AL40" s="41">
-        <f t="shared" ref="AL40" ca="1" si="46">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AL$36,$D50:$GL50))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AL$36,$D52:$GL52))/7</f>
         <v>5</v>
       </c>
       <c r="AM40" s="41"/>
@@ -2382,7 +2410,7 @@
       <c r="HH40" s="34"/>
     </row>
     <row r="41" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="47" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2438,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="41">
-        <f t="shared" ref="K41" ca="1" si="47">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,K$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,K$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="L41" s="41"/>
@@ -2418,7 +2446,7 @@
         <v>22</v>
       </c>
       <c r="N41" s="41">
-        <f t="shared" ref="N41" ca="1" si="48">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,N$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,N$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="O41" s="41"/>
@@ -2426,7 +2454,7 @@
         <v>22</v>
       </c>
       <c r="Q41" s="41">
-        <f t="shared" ref="Q41" ca="1" si="49">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,Q$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,Q$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="R41" s="41"/>
@@ -2434,7 +2462,7 @@
         <v>22</v>
       </c>
       <c r="T41" s="41">
-        <f t="shared" ref="T41" ca="1" si="50">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,T$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,T$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="U41" s="41"/>
@@ -2442,7 +2470,7 @@
         <v>22</v>
       </c>
       <c r="W41" s="41">
-        <f t="shared" ref="W41" ca="1" si="51">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,W$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,W$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="X41" s="41"/>
@@ -2450,7 +2478,7 @@
         <v>22</v>
       </c>
       <c r="Z41" s="41">
-        <f t="shared" ref="Z41" ca="1" si="52">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,Z$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,Z$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="AA41" s="41"/>
@@ -2458,7 +2486,7 @@
         <v>22</v>
       </c>
       <c r="AC41" s="41">
-        <f t="shared" ref="AC41" ca="1" si="53">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AC$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AC$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="AD41" s="41"/>
@@ -2466,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="AF41" s="41">
-        <f t="shared" ref="AF41" ca="1" si="54">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AF$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AF$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="AG41" s="41"/>
@@ -2474,7 +2502,7 @@
         <v>22</v>
       </c>
       <c r="AI41" s="41">
-        <f t="shared" ref="AI41" ca="1" si="55">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AI$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AI$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="AJ41" s="41"/>
@@ -2482,7 +2510,7 @@
         <v>22</v>
       </c>
       <c r="AL41" s="41">
-        <f t="shared" ref="AL41" ca="1" si="56">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AL$36,$D51:$GL51))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B51,$C$53:$C$82,$C51)*7-SUMIF($D$46:$GL$46,AL$36,$D51:$GL51))/7</f>
         <v>3</v>
       </c>
       <c r="AM41" s="41"/>
@@ -2665,19 +2693,19 @@
       <c r="HH41" s="34"/>
     </row>
     <row r="42" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="23" t="str">
         <f>B42&amp;" " &amp;A40</f>
-        <v>Four Load Control</v>
+        <v>Ambiant Load Control</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,E$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,E$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="F42" s="41"/>
@@ -2685,7 +2713,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="41">
-        <f ca="1">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,H$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,H$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="I42" s="41"/>
@@ -2693,7 +2721,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="41">
-        <f t="shared" ref="K42" ca="1" si="57">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,K$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,K$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="L42" s="41"/>
@@ -2701,7 +2729,7 @@
         <v>22</v>
       </c>
       <c r="N42" s="41">
-        <f t="shared" ref="N42" ca="1" si="58">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,N$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,N$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="O42" s="41"/>
@@ -2709,7 +2737,7 @@
         <v>22</v>
       </c>
       <c r="Q42" s="41">
-        <f t="shared" ref="Q42" ca="1" si="59">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,Q$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,Q$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="R42" s="41"/>
@@ -2717,7 +2745,7 @@
         <v>22</v>
       </c>
       <c r="T42" s="41">
-        <f t="shared" ref="T42" ca="1" si="60">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,T$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,T$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="U42" s="41"/>
@@ -2725,7 +2753,7 @@
         <v>22</v>
       </c>
       <c r="W42" s="41">
-        <f t="shared" ref="W42" ca="1" si="61">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,W$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,W$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="X42" s="41"/>
@@ -2733,7 +2761,7 @@
         <v>22</v>
       </c>
       <c r="Z42" s="41">
-        <f t="shared" ref="Z42" ca="1" si="62">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,Z$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,Z$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="AA42" s="41"/>
@@ -2741,7 +2769,7 @@
         <v>22</v>
       </c>
       <c r="AC42" s="41">
-        <f t="shared" ref="AC42" ca="1" si="63">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AC$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AC$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="AD42" s="41"/>
@@ -2749,7 +2777,7 @@
         <v>22</v>
       </c>
       <c r="AF42" s="41">
-        <f t="shared" ref="AF42" ca="1" si="64">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AF$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AF$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="AG42" s="41"/>
@@ -2757,7 +2785,7 @@
         <v>22</v>
       </c>
       <c r="AI42" s="41">
-        <f t="shared" ref="AI42" ca="1" si="65">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AI$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AI$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="AJ42" s="41"/>
@@ -2765,7 +2793,7 @@
         <v>22</v>
       </c>
       <c r="AL42" s="41">
-        <f t="shared" ref="AL42" ca="1" si="66">(COUNTIFS($B$53:$B$82,$B52,$C$53:$C$82,$C52)*7-SUMIF($D$46:$GL$46,AL$36,$D52:$GL52))/7</f>
+        <f ca="1">(COUNTIFS($B$53:$B$82,$B50,$C$53:$C$82,$C50)*7-SUMIF($D$46:$GL$46,AL$36,$D50:$GL50))/7</f>
         <v>5</v>
       </c>
       <c r="AM42" s="41"/>
@@ -3008,7 +3036,7 @@
       </c>
       <c r="D45" s="33">
         <f ca="1">NOW()</f>
-        <v>43418.59096400463</v>
+        <v>43420.403793171296</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -3034,768 +3062,768 @@
         <v>46</v>
       </c>
       <c r="E46" s="38">
-        <f t="shared" ref="E46:BP46" si="67">WEEKNUM(E45)</f>
+        <f t="shared" ref="E46:BP46" si="10">WEEKNUM(E45)</f>
         <v>0</v>
       </c>
       <c r="F46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AO46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AS46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AV46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AW46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AX46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AY46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BA46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BC46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BD46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BH46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BI46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BJ46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BK46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BL46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BM46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BN46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BO46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP46" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BQ46" s="38">
-        <f t="shared" ref="BQ46:EB46" si="68">WEEKNUM(BQ45)</f>
+        <f t="shared" ref="BQ46:EB46" si="11">WEEKNUM(BQ45)</f>
         <v>0</v>
       </c>
       <c r="BR46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BS46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BT46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BU46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BV46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BW46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BY46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BZ46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CA46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CB46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CC46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CD46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CE46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CF46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CG46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CH46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CI46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CJ46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CK46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CL46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CM46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CN46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CO46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CP46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CQ46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CR46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CS46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CT46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CU46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CV46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CW46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CX46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CY46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="CZ46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DA46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DB46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DC46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DD46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DE46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DF46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DG46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DH46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DI46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DJ46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DK46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DL46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DM46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DN46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DO46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DP46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DQ46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DR46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DS46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DT46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DU46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DV46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DW46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DX46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DY46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DZ46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EA46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EB46" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC46" s="38">
-        <f t="shared" ref="EC46:GL46" si="69">WEEKNUM(EC45)</f>
+        <f t="shared" ref="EC46:GL46" si="12">WEEKNUM(EC45)</f>
         <v>0</v>
       </c>
       <c r="ED46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EE46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EF46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EG46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EH46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EI46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EJ46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EK46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EL46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EM46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EN46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EO46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EP46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EQ46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="ER46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="ES46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="ET46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EU46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EV46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EW46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EX46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EY46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="EZ46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FA46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FB46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FC46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FD46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FE46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FF46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FG46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FH46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FI46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FJ46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FK46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FL46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FM46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FN46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FO46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FP46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FQ46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FR46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FS46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FT46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FU46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FV46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FW46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FX46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FY46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="FZ46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GA46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GB46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GC46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GD46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GE46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GF46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GG46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GH46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GI46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GJ46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GK46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="GL46" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:216" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="30" t="s">
@@ -3809,768 +3837,768 @@
         <v>0</v>
       </c>
       <c r="E47" s="39">
-        <f t="shared" ref="E47:BP48" si="70">SUMIFS(E$53:E$82,$B$53:$B$82,$B47,$C$53:$C$82,$C47)</f>
+        <f t="shared" ref="E47:BP48" si="13">SUMIFS(E$53:E$82,$B$53:$B$82,$B47,$C$53:$C$82,$C47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AX47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AY47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AZ47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BA47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BB47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BC47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BJ47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BK47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BL47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BM47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BN47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BO47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BP47" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BQ47" s="39">
-        <f t="shared" ref="BQ47:EB50" si="71">SUMIFS(BQ$53:BQ$82,$B$53:$B$82,$B47,$C$53:$C$82,$C47)</f>
+        <f t="shared" ref="BQ47:EB50" si="14">SUMIFS(BQ$53:BQ$82,$B$53:$B$82,$B47,$C$53:$C$82,$C47)</f>
         <v>0</v>
       </c>
       <c r="BR47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BS47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BT47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BU47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BV47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BW47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BX47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BY47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BZ47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CB47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CC47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CD47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CE47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CF47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CG47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CH47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CI47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CJ47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CK47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CL47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CM47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CN47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CO47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CP47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CQ47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CR47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CS47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CU47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CV47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CW47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CX47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CY47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CZ47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DA47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DB47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DC47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DD47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DE47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DF47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DG47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DH47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DI47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DJ47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DK47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DL47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DM47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DN47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DO47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DP47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DQ47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DR47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DS47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DT47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DU47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DV47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DW47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DX47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DY47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DZ47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EA47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EB47" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EC47" s="39">
-        <f t="shared" ref="EC47:GL49" si="72">SUMIFS(EC$53:EC$82,$B$53:$B$82,$B47,$C$53:$C$82,$C47)</f>
+        <f t="shared" ref="EC47:GL49" si="15">SUMIFS(EC$53:EC$82,$B$53:$B$82,$B47,$C$53:$C$82,$C47)</f>
         <v>0</v>
       </c>
       <c r="ED47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EE47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EF47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EG47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EH47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EI47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EJ47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EK47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EL47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EM47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EN47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EO47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EP47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EQ47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ER47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ES47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ET47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EU47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EV47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EW47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EX47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EY47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EZ47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FA47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FB47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FC47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FD47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FE47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FF47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FG47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FH47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FI47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FJ47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FK47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FL47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FM47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FN47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FO47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FP47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FQ47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FR47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FS47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FT47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FU47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FV47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FW47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FX47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FY47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FZ47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GA47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GB47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GC47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GD47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GE47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GF47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GG47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GH47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GI47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GJ47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GK47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GL47" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="30" t="s">
         <v>21</v>
       </c>
@@ -4578,772 +4606,772 @@
         <v>17</v>
       </c>
       <c r="D48" s="39">
-        <f t="shared" ref="D48:S52" si="73">SUMIFS(D$53:D$82,$B$53:$B$82,$B48,$C$53:$C$82,$C48)</f>
+        <f t="shared" ref="D48:S52" si="16">SUMIFS(D$53:D$82,$B$53:$B$82,$B48,$C$53:$C$82,$C48)</f>
         <v>0</v>
       </c>
       <c r="E48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S48" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AX48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AY48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AZ48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BA48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BB48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BC48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BJ48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BK48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BL48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BM48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BN48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BO48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BP48" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BQ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BR48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BS48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BT48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BU48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BV48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BW48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BX48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BY48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BZ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CB48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CC48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CD48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CE48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CF48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CG48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CH48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CI48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CJ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CK48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CL48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CM48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CN48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CO48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CP48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CQ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CR48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CS48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CU48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CV48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CW48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CX48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CY48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CZ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DA48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DB48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DC48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DD48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DE48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DF48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DG48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DH48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DI48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DJ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DK48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DL48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DM48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DN48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DO48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DP48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DQ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DR48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DS48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DT48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DU48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DV48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DW48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DX48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DY48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DZ48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EA48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EB48" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EC48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ED48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EE48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EF48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EG48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EH48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EI48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EJ48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EK48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EL48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EM48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EN48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EO48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EP48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EQ48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ER48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ES48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ET48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EU48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EV48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EW48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EX48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EY48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EZ48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FA48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FB48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FC48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FD48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FE48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FF48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FG48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FH48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FI48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FJ48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FK48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FL48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FM48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FN48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FO48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FP48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FQ48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FR48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FS48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FT48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FU48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FV48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FW48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FX48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FY48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FZ48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GA48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GB48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GC48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GD48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GE48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GF48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GG48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GH48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GI48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GJ48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GK48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GL48" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:194" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="30" t="s">
         <v>20</v>
       </c>
@@ -5351,772 +5379,772 @@
         <v>17</v>
       </c>
       <c r="D49" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E49" s="39">
-        <f t="shared" ref="E49:BP52" si="74">SUMIFS(E$53:E$82,$B$53:$B$82,$B49,$C$53:$C$82,$C49)</f>
+        <f t="shared" ref="E49:BP52" si="17">SUMIFS(E$53:E$82,$B$53:$B$82,$B49,$C$53:$C$82,$C49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AH49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AK49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AM49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BD49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BG49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BI49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BK49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BL49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BM49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BN49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BO49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BP49" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BQ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BR49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BS49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BT49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BU49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BV49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BW49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BX49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BY49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BZ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CB49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CC49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CD49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CE49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CF49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CG49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CH49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CI49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CJ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CK49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CL49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CM49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CN49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CO49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CP49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CQ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CR49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CS49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CU49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CV49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CW49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CX49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CY49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CZ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DA49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DB49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DC49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DD49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DE49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DF49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DG49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DH49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DI49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DJ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DK49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DL49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DM49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DN49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DO49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DP49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DQ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DR49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DS49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DT49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DU49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DV49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DW49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DX49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DY49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DZ49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EA49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EB49" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EC49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ED49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EE49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EF49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EG49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EH49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EI49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EJ49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EK49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EL49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EM49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EN49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EO49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EP49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EQ49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ER49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ES49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="ET49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EU49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EV49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EW49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EX49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EY49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="EZ49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FA49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FB49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FC49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FD49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FE49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FF49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FG49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FH49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FI49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FJ49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FK49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FL49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FM49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FN49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FO49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FP49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FQ49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FR49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FS49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FT49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FU49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FV49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FW49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FX49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FY49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="FZ49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GA49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GB49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GC49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GD49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GE49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GF49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GG49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GH49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GI49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GJ49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GK49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="GL49" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:194" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -6126,772 +6154,772 @@
         <v>18</v>
       </c>
       <c r="D50" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AH50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AK50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AM50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BD50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BG50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BI50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BK50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BL50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BM50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BN50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BO50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BP50" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BQ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BR50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BS50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BT50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BU50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BV50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BW50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BX50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BY50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BZ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CB50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CC50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CD50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CE50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CF50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CG50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CH50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CI50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CJ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CK50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CL50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CM50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CN50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CO50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CP50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CQ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CR50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CS50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CU50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CV50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CW50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CX50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CY50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CZ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DA50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DB50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DC50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DD50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DE50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DF50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DG50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DH50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DI50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DJ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DK50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DL50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DM50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DN50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DO50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DP50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DQ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DR50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DS50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DT50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DU50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DV50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DW50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DX50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DY50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="DZ50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EA50" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="EB50" s="39">
-        <f t="shared" ref="EB50:GL52" si="75">SUMIFS(EB$53:EB$82,$B$53:$B$82,$B50,$C$53:$C$82,$C50)</f>
+        <f t="shared" ref="EB50:GL52" si="18">SUMIFS(EB$53:EB$82,$B$53:$B$82,$B50,$C$53:$C$82,$C50)</f>
         <v>0</v>
       </c>
       <c r="EC50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ED50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EE50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EF50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EG50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EH50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EI50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EJ50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EK50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EL50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EM50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EN50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EO50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EP50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EQ50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ER50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ES50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ET50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EU50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EV50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EW50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EX50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EY50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EZ50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FA50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FB50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FC50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FD50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FE50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FF50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FG50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FH50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FI50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FJ50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FK50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FL50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FM50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FN50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FO50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FP50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FQ50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FR50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FS50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FT50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FU50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FV50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FW50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FX50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FY50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FZ50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GA50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GB50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GC50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GD50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GE50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GF50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GG50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GH50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GI50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GJ50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GK50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GL50" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:194" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="30" t="s">
         <v>21</v>
       </c>
@@ -6899,772 +6927,772 @@
         <v>18</v>
       </c>
       <c r="D51" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AH51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AK51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AM51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BD51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BG51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BI51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BK51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BL51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BM51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BN51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BO51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BP51" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BQ51" s="39">
-        <f t="shared" ref="BQ51:EB52" si="76">SUMIFS(BQ$53:BQ$82,$B$53:$B$82,$B51,$C$53:$C$82,$C51)</f>
+        <f t="shared" ref="BQ51:EB52" si="19">SUMIFS(BQ$53:BQ$82,$B$53:$B$82,$B51,$C$53:$C$82,$C51)</f>
         <v>0</v>
       </c>
       <c r="BR51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BS51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BT51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BU51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BV51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BW51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BX51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BY51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BZ51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CA51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CB51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CC51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CD51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CE51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CF51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CG51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CH51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CI51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CJ51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CK51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CL51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CM51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CN51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CO51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CP51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CQ51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CR51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CS51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CT51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CU51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CV51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CW51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CX51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CY51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CZ51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DA51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DB51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DC51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DD51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DE51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DF51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DG51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DH51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DI51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DJ51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DK51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DL51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DM51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DN51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DO51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DP51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DQ51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DR51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DS51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DT51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DU51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DV51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DW51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DX51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DY51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="DZ51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="EA51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="EB51" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="EC51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ED51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EE51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EF51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EG51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EH51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EI51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EJ51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EK51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EL51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EM51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EN51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EO51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EP51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EQ51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ER51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ES51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ET51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EU51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EV51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EW51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EX51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EY51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EZ51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FA51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FB51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FC51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FD51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FE51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FF51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FG51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FH51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FI51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FJ51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FK51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FL51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FM51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FN51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FO51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FP51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FQ51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FR51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FS51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FT51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FU51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FV51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FW51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FX51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FY51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FZ51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GA51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GB51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GC51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GD51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GE51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GF51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GG51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GH51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GI51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GJ51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GK51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GL51" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:194" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="30" t="s">
         <v>20</v>
       </c>
@@ -7672,767 +7700,767 @@
         <v>18</v>
       </c>
       <c r="D52" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AH52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AK52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AM52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BD52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BG52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BI52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BK52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BL52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BM52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BN52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BO52" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BP52" s="39">
-        <f t="shared" ref="BP52:EA52" si="77">SUMIFS(BP$53:BP$82,$B$53:$B$82,$B52,$C$53:$C$82,$C52)</f>
+        <f t="shared" ref="BP52:EA52" si="20">SUMIFS(BP$53:BP$82,$B$53:$B$82,$B52,$C$53:$C$82,$C52)</f>
         <v>0</v>
       </c>
       <c r="BQ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BS52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BT52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BU52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BV52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BW52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BX52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BY52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BZ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CA52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CB52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CC52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CD52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CE52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CF52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CG52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CH52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CI52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CJ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CK52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CL52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CM52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CN52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CO52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CP52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CQ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CR52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CS52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CT52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CU52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CV52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CW52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CX52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CY52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CZ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DA52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DB52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DC52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DD52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DE52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DF52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DG52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DH52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DI52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DJ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DK52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DL52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DM52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DN52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DO52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DP52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DQ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DR52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DS52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DT52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DU52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DV52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DW52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DX52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DY52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DZ52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="EA52" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="EB52" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="EC52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ED52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EE52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EF52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EG52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EH52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EI52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EJ52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EK52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EL52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EM52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EN52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EO52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EP52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EQ52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ER52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ES52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="ET52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EU52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EV52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EW52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EX52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EY52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="EZ52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FA52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FB52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FC52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FD52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FE52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FF52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FG52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FH52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FI52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FJ52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FK52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FL52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FM52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FN52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FO52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FP52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FQ52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FR52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FS52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FT52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FU52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FV52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FW52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FX52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FY52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="FZ52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GA52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GB52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GC52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GD52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GE52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GF52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GG52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GH52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GI52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GJ52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GK52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="GL52" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -9214,18 +9242,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9248,14 +9276,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2473AE6-58EA-4483-BA75-FF2FBA4C0E2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C94C584-4AAB-4B64-8188-315FD51E3EE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -9270,4 +9290,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2473AE6-58EA-4483-BA75-FF2FBA4C0E2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>